--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -498,40 +498,40 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>15460000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17590310</t>
+          <t>17530612</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15460000</t>
+          <t>15340815</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17521123</t>
+          <t>17590310</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Roma (Noviciado de Sant'Andrea al Quirinale)</t>
+          <t>Tournai</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -786,52 +786,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15710816</t>
+          <t>15960705</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17111213</t>
+          <t>16960929</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Tournai</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15960705</t>
+          <t>16680920</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16960929</t>
+          <t>17431107</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Alcalá</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16680920</t>
+          <t>15550952</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17431107</t>
+          <t>15710624</t>
         </is>
       </c>
     </row>
@@ -898,27 +898,27 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lisboa (Arroios)</t>
+          <t>Cracóvia</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17450423</t>
+          <t>16310816</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17530612</t>
+          <t>16760909</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Alcalá</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -926,19 +926,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15550952</t>
+          <t>16740927</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15710624</t>
+          <t>16930923</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Cracóvia</t>
+          <t>Palermo, Sicília</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -946,19 +946,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16310816</t>
+          <t>16181103</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16760909</t>
+          <t>16561022</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -966,59 +966,59 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16740927</t>
+          <t>15480613</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16930923</t>
+          <t>16780000</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Bolonha</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16181103</t>
+          <t>16680000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16561022</t>
+          <t>17250728</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Hangchow</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15480613</t>
+          <t>16270000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>16790621</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Bolonha</t>
+          <t>Milão</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1026,19 +1026,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16680000</t>
+          <t>16731021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17250728</t>
+          <t>16901101</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Hangchow</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1046,19 +1046,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16270000</t>
+          <t>16800921</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16790621</t>
+          <t>17280930</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Milão</t>
+          <t>Trier</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1066,59 +1066,59 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16731021</t>
+          <t>16770821</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16901101</t>
+          <t>17271019</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Arona</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16800921</t>
+          <t>15960921</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17280930</t>
+          <t>16140824</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Trier</t>
+          <t>Boémia</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16770821</t>
+          <t>17290927</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17271019</t>
+          <t>17291010</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alcalá de Henares</t>
+          <t>Douai</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1126,19 +1126,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15580413</t>
+          <t>15941109</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15710000</t>
+          <t>15990512</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Arona</t>
+          <t>Ferrara</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1146,19 +1146,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15960921</t>
+          <t>15550000</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>16140824</t>
+          <t>15561200</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1166,19 +1166,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17290927</t>
+          <t>16871224</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17291010</t>
+          <t>16881012</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Douai</t>
+          <t>Messina, Sicília</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1186,19 +1186,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15941109</t>
+          <t>15820000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15990512</t>
+          <t>17061207</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Ferrara</t>
+          <t>Montmartre</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15550000</t>
+          <t>15340815</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15561200</t>
+          <t>15340815</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Saragoça</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1226,19 +1226,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16871224</t>
+          <t>16740613</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16881012</t>
+          <t>16771115</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Messina, Sicília</t>
+          <t>Shiuchow</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1246,19 +1246,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15820000</t>
+          <t>15910101</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17061207</t>
+          <t>16050000</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Montmartre</t>
+          <t>Shiuchow, Chao-tcheou fou</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1266,19 +1266,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>15891100</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>15891100</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Saragoça</t>
+          <t>Vilnius</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1286,59 +1286,59 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16740613</t>
+          <t>16180531</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16771115</t>
+          <t>16720811</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Shiuchow, Chao-tcheou fou</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15891100</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15891100</t>
+          <t>16410000</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16180531</t>
+          <t>17280105</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16720811</t>
+          <t>17280105</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Colorno</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>17991116</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>17991116</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Courtrai</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1366,19 +1366,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17280105</t>
+          <t>16440926</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17280105</t>
+          <t>16440926</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Colorno</t>
+          <t>Goa, Índia</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1386,19 +1386,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17991116</t>
+          <t>15791200</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17991116</t>
+          <t>15791200</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Courtrai</t>
+          <t>Japão (província)</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1406,19 +1406,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16440926</t>
+          <t>17280523</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16440926</t>
+          <t>17280523</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Goa, Índia</t>
+          <t>Krems</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1426,19 +1426,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15791200</t>
+          <t>16641031</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15791200</t>
+          <t>16641031</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Japão (província)</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1446,19 +1446,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17280523</t>
+          <t>15680711</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17280523</t>
+          <t>15680711</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Krems</t>
+          <t>Lorette</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1466,19 +1466,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>15590425</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>15590425</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>16730717</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>16730717</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Lorette</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1506,19 +1506,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>16721011</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>16721011</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Mazowsze (província)</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1526,19 +1526,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>17700813</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>17700813</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Milão (província)</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1546,19 +1546,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>16581105</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>16581105</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Mazowsze (província)</t>
+          <t>Nan-tch'ang</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1566,19 +1566,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16080000</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Milão (província)</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1586,19 +1586,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>16080300</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>16080300</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Nan-tch'ang</t>
+          <t>Novellara</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16001101</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16001101</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Novellario</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>16170121</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>16170121</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Novellara</t>
+          <t>Ormuz</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1646,19 +1646,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>000000</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Novellario</t>
+          <t>Ozukio (noviciado)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1666,19 +1666,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>15811100</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>15811100</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Ormuz</t>
+          <t>Polotsk</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1686,19 +1686,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>17860903</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>17860903</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Ozukio (noviciado)</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1706,19 +1706,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>16830419</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>16830419</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Polotsk</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1726,19 +1726,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>16100000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>16100000</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Salamanca</t>
+          <t>Todos-os-Santos, Nagasaki</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1746,19 +1746,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>16070202</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>16070202</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Toulouse (província)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>17500319</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>17500319</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Shiuchow</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1786,19 +1786,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16050000</t>
+          <t>17291027</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>16050000</t>
+          <t>17291027</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Shiuchow (Chao-tcheou)</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1806,19 +1806,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15910101</t>
+          <t>15610927</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15910101</t>
+          <t>15610927</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Todos-os-Santos, Nagasaki</t>
+          <t>Veneza</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1826,19 +1826,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>17180424</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>17180424</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Toulouse (província)</t>
+          <t>Villaregio</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1846,19 +1846,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>15890406</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>15890406</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>[Missão]</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1866,19 +1866,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>17310308</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>17310308</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>província do Japão</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1886,19 +1886,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15610927</t>
+          <t>16910113</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>15610927</t>
+          <t>16910113</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Veneza</t>
+          <t>Índia</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1906,90 +1906,10 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17180424</t>
+          <t>15530000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
-        <is>
-          <t>17180424</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Villaregio</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>15890406</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>15890406</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>[Missão]</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>17310308</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>17310308</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>província do Japão</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>16910113</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>16910113</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Índia</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>15530000</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
         <is>
           <t>15530000</t>
         </is>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Goa, Índia</t>
+          <t>Japão (província)</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1386,19 +1386,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15791200</t>
+          <t>17280523</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>15791200</t>
+          <t>17280523</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Japão (província)</t>
+          <t>Krems</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1406,19 +1406,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17280523</t>
+          <t>16641031</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17280523</t>
+          <t>16641031</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Krems</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1426,19 +1426,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>15680711</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>15680711</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Lorette</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1446,19 +1446,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>15590425</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>15590425</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Lorette</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1466,19 +1466,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>16730717</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>16730717</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>16721011</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>16721011</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Mazowsze (província)</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1506,19 +1506,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>17700813</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>17700813</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Mazowsze (província)</t>
+          <t>Milão (província)</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1526,19 +1526,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16581105</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16581105</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Milão (província)</t>
+          <t>Nan-tch'ang</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1546,19 +1546,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>16080000</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Nan-tch'ang</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1566,19 +1566,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16080300</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16080300</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Novellara</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1586,19 +1586,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>16001101</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>16001101</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Novellara</t>
+          <t>Novellario</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>16170121</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>16170121</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Novellario</t>
+          <t>Ormuz</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>000000</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Ormuz</t>
+          <t>Ozukio (noviciado)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1646,19 +1646,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>15811100</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>15811100</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ozukio (noviciado)</t>
+          <t>Polotsk</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1666,19 +1666,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>17860903</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>17860903</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Polotsk</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1686,19 +1686,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>16830419</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>16830419</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Salamanca</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1706,19 +1706,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>16100000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>16100000</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Todos-os-Santos, Nagasaki</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1726,19 +1726,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>16070202</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>16070202</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Todos-os-Santos, Nagasaki</t>
+          <t>Toulouse (província)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1746,19 +1746,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>17500319</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>17500319</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Toulouse (província)</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>17291027</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>17291027</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1786,19 +1786,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>15610927</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>15610927</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Veneza</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1806,19 +1806,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15610927</t>
+          <t>17180424</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15610927</t>
+          <t>17180424</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Veneza</t>
+          <t>Villaregio</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1826,19 +1826,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17180424</t>
+          <t>15890406</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>17180424</t>
+          <t>15890406</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Villaregio</t>
+          <t>[Missão]</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1846,19 +1846,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15890406</t>
+          <t>17310308</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>15890406</t>
+          <t>17310308</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>[Missão]</t>
+          <t>província do Japão</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1866,19 +1866,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>17310308</t>
+          <t>16910113</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17310308</t>
+          <t>16910113</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>província do Japão</t>
+          <t>Índia</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1886,30 +1886,10 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>16910113</t>
+          <t>15530000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
-        <is>
-          <t>16910113</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Índia</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>15530000</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
         <is>
           <t>15530000</t>
         </is>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -498,60 +498,60 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15460000</t>
+          <t>15340815</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17530612</t>
+          <t>17590310</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>15400927</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17590310</t>
+          <t>17560709</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15400927</t>
+          <t>15460000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17560709</t>
+          <t>17521123</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -858,27 +858,27 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Chieri</t>
+          <t>Lisboa, Arroios</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16280213</t>
+          <t>17450423</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16880120</t>
+          <t>17530612</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Chieri</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -886,39 +886,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15560000</t>
+          <t>16280213</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16260600</t>
+          <t>16880120</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Cracóvia</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16310816</t>
+          <t>15560000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16760909</t>
+          <t>16260600</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Cracóvia</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -926,19 +926,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16740927</t>
+          <t>16310816</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16930923</t>
+          <t>16760909</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -946,19 +946,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16181103</t>
+          <t>16740927</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16561022</t>
+          <t>16930923</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Palermo, Sicília</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -966,39 +966,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15480613</t>
+          <t>16181103</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>16561022</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Bolonha</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16680000</t>
+          <t>15480613</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17250728</t>
+          <t>16780000</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Hangchow</t>
+          <t>Bolonha</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1006,19 +1006,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16270000</t>
+          <t>16680000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16790621</t>
+          <t>17250728</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Milão</t>
+          <t>Hangchow</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1026,19 +1026,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16731021</t>
+          <t>16270000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>16901101</t>
+          <t>16790621</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Milão</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1046,19 +1046,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16800921</t>
+          <t>16731021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17280930</t>
+          <t>16901101</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Trier</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1066,39 +1066,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16770821</t>
+          <t>16800921</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17271019</t>
+          <t>17280930</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Arona</t>
+          <t>Trier</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15960921</t>
+          <t>16770821</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16140824</t>
+          <t>17271019</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>Arona</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1106,19 +1106,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17290927</t>
+          <t>15960921</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17291010</t>
+          <t>16140824</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Douai</t>
+          <t>Boémia</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1126,19 +1126,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15941109</t>
+          <t>17290927</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15990512</t>
+          <t>17291010</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ferrara</t>
+          <t>Douai</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1146,19 +1146,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15550000</t>
+          <t>15941109</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15561200</t>
+          <t>15990512</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Ferrara</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1166,19 +1166,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16871224</t>
+          <t>15550000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16881012</t>
+          <t>15561200</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Messina, Sicília</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1186,19 +1186,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15820000</t>
+          <t>16871224</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17061207</t>
+          <t>16881012</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Montmartre</t>
+          <t>Messina, Sicília</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>15820000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>17061207</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Saragoça</t>
+          <t>Montmartre</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1226,19 +1226,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16740613</t>
+          <t>15340815</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16771115</t>
+          <t>15340815</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Shiuchow</t>
+          <t>Saragoça</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1246,19 +1246,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15910101</t>
+          <t>16740613</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>16050000</t>
+          <t>16771115</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Shiuchow, Chao-tcheou fou</t>
+          <t>Shiuchow</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1266,19 +1266,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15891100</t>
+          <t>15910101</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15891100</t>
+          <t>16050000</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>Shiuchow, Chao-tcheou fou</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1286,39 +1286,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16180531</t>
+          <t>15891100</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16720811</t>
+          <t>15891100</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Vilnius</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>16180531</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>16720811</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1326,19 +1326,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17280105</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17280105</t>
+          <t>16410000</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Colorno</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17991116</t>
+          <t>17280105</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17991116</t>
+          <t>17280105</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Courtrai</t>
+          <t>Colorno</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1366,19 +1366,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16440926</t>
+          <t>17991116</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>16440926</t>
+          <t>17991116</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Japão (província)</t>
+          <t>Courtrai</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1386,19 +1386,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17280523</t>
+          <t>16440926</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17280523</t>
+          <t>16440926</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Krems</t>
+          <t>Japão (província)</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1406,19 +1406,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>17280523</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>17280523</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Krems</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1426,19 +1426,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>16641031</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>16641031</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Lorette</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1446,19 +1446,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>15680711</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>15680711</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Lorette</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1466,19 +1466,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>15590425</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>15590425</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>16730717</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>16730717</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Mazowsze (província)</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1506,19 +1506,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16721011</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16721011</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Milão (província)</t>
+          <t>Mazowsze (província)</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1526,19 +1526,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>17700813</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>17700813</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Nan-tch'ang</t>
+          <t>Milão (província)</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1546,19 +1546,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16581105</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>16581105</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Nan-tch'ang</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1566,19 +1566,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>16080000</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Novellara</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1586,19 +1586,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>16080300</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>16080300</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Novellario</t>
+          <t>Novellara</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>16001101</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>16001101</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Ormuz</t>
+          <t>Novellario</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>16170121</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>16170121</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Ozukio (noviciado)</t>
+          <t>Ormuz</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1646,19 +1646,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>000000</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Polotsk</t>
+          <t>Ozukio (noviciado)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1666,19 +1666,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>15811100</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>15811100</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Salamanca</t>
+          <t>Polotsk</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1686,19 +1686,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>17860903</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>17860903</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1706,19 +1706,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>16830419</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>16830419</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Todos-os-Santos, Nagasaki</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1726,19 +1726,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>16100000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>16100000</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Toulouse (província)</t>
+          <t>Todos-os-Santos, Nagasaki</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1746,19 +1746,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>16070202</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>16070202</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Toulouse (província)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>17500319</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>17500319</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Valença</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1786,19 +1786,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>15610927</t>
+          <t>17291027</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>15610927</t>
+          <t>17291027</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Veneza</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1806,19 +1806,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>17180424</t>
+          <t>15610927</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17180424</t>
+          <t>15610927</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Villaregio</t>
+          <t>Veneza</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1826,19 +1826,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>15890406</t>
+          <t>17180424</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>15890406</t>
+          <t>17180424</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>[Missão]</t>
+          <t>Villaregio</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1846,19 +1846,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>17310308</t>
+          <t>15890406</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17310308</t>
+          <t>15890406</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>província do Japão</t>
+          <t>[Missão]</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1866,30 +1866,50 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>16910113</t>
+          <t>17310308</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>16910113</t>
+          <t>17310308</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
+          <t>província do Japão</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>16910113</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>16910113</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
           <t>Índia</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="inlineStr">
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>15530000</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>15530000</t>
         </is>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,151 +454,311 @@
           <t>date_max</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_inicial</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data_final</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ano_inicial</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ano_final</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>?</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15440000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17880828</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1544-07-02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1788-08-28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1544</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1788</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15420000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17420427</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1542-07-02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1742-04-27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1742</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15340815</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17590310</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1534-08-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1759-03-10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1534</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1759</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15400927</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19730000</t>
+          <t>17560709</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1540-09-27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1756-07-09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1756</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15460000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17521123</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1546-07-02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1752-11-23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1752</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15480000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17360000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1548-07-02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1736-07-02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1736</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Évora</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15660714</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17460405</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1566-07-14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1746-04-05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1746</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Áustria</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,472 +766,2536 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16270929</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17510827</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1627-09-29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1751-08-27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1627</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1751</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Flandres</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16280000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17490201</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1628-07-02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1749-02-01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1749</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Boémia</t>
+          <t>Avignon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16150926</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17370927</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1615-09-26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1737-09-27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1737</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Landsberg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16230729</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17571009</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1623-07-29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1757-10-09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1623</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1757</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Viena, Áustria</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16271016</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17651018</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1627-10-16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1765-10-18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1627</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1765</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Polónia</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17310308</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17730214</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731-03-08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1773-02-14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1731</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1773</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Holanda</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16341015</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16720424</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1634-10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1672-04-24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1634</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1672</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Inglaterra</t>
+          <t>Nápoles</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15560120</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17000311</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1556-01-20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1700-03-11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1700</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Génova</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16390915</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17680930</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1639-09-15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1768-09-30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1639</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1768</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Coreia</t>
+          <t>Tournai</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15960705</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16960929</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1596-07-05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1696-09-29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1696</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16680920</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17431107</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1668-09-20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1743-11-07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1668</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1743</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Alsácia</t>
+          <t>Alcalá</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15550925</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15710624</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1555-09-25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1571-06-24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1571</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Europa</t>
+          <t>Brno, República Checa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16060000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17261009</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1606-07-02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1726-10-09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1726</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sabóia</t>
+          <t>Lisboa, Arroios</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17450423</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17530612</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1745-04-23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1753-06-12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1753</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Chieri</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16280213</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16880120</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1628-02-13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1688-01-20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1688</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Dalmácia</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15560000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16260600</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1556-07-02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1626-06-15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1626</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fraça</t>
+          <t>Cracóvia</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16310816</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16760909</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1631-08-16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1676-09-09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1676</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Irlanda</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16740927</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16930923</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1674-09-27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1693-09-23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1674</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1693</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Lituânia</t>
+          <t>Palermo, Sicília</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16181103</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16561022</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1618-11-03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1656-10-22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1656</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malásia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15480613</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16780000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1548-06-13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1678-07-02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1678</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Bolonha</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16680000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17250728</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1668-07-02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1725-07-28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1668</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1725</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Rússia</t>
+          <t>Hangchow</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16270000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16790621</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1627-07-02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1679-06-21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1627</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1679</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Tartária</t>
+          <t>Milão</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16731021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16901101</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1673-10-21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1690-11-01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1673</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1690</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16800921</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17280930</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1680-09-21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1728-09-30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Trier</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16770821</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17271019</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1677-08-21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1727-10-19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1677</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Arona</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15960921</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16140824</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1596-09-21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1614-08-24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Boémia</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>17290927</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17291010</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1729-09-27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1729-10-10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1729</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1729</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Douai</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>15941109</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15990512</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1594-11-09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1599-05-12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1594</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Ferrara</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>15550000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15561200</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1555-07-02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1556-12-15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Japão (província)</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16910113</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17280523</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1691-01-13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1728-05-23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1691</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Leoben</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16871224</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16881012</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1687-12-24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1688-10-12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1687</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Messina, Sicília</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>15820000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17061207</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1582-07-02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1706-12-07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1582</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1706</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Montmartre</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>15340815</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15340815</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1534-08-15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1534-08-15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1534</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1534</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Saragoça</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16740613</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16771115</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1674-06-13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1677-11-15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1674</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1677</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Shiuchow</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>15910101</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16050000</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1591-01-01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1605-07-02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Shiuchow, Chao-tcheou fou</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>15891100</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15891100</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1589-11-15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1589-11-15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Vilnius</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16180531</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16720811</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1618-05-31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1672-08-11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1672</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16410000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16410000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1641-07-02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1641-07-02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1641</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1641</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>17280105</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17280105</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1728-01-05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1728-01-05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Colorno</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>17991116</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17991116</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1799-11-16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1799-11-16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Courtrai</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>16440926</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16440926</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1644-09-26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1644-09-26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Krems</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16641031</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16641031</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1664-10-31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1664-10-31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Lima, Peru</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>15680711</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15680711</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1568-07-11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1568-07-11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Lorette</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>15590425</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15590425</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1559-04-25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1559-04-25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16730717</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>16730717</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1673-07-17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1673-07-17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1673</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1673</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Manila</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16721011</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>16721011</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1672-10-11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1672-10-11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1672</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1672</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Mazowsze (província)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>17700813</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17700813</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1770-08-13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1770-08-13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Milão (província)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>16581105</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16581105</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1658-11-05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1658-11-05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Nan-tch'ang</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16080000</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>16080000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1608-07-02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1608-07-02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Nanquim</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>16080300</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>16080300</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1608-03-15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1608-03-15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Novellara</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>16001101</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16001101</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1600-11-01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1600-11-01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Novellario</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>16170121</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16170121</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1617-01-21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1617-01-21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Ormuz</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Ozukio (noviciado)</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>15811100</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>15811100</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1581-11-15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1581-11-15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Polotsk</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>17860903</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>17860903</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1786-09-03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1786-09-03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1786</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1786</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Salamanca</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>16830419</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16830419</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1683-04-19</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1683-04-19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>16100000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>16100000</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1610-07-02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1610-07-02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Todos-os-Santos, Nagasaki</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>16070202</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>16070202</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1607-02-02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1607-02-02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1607</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1607</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Toulouse (província)</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>17500319</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>17500319</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1750-03-19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1750-03-19</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>1750</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1750</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>17291027</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>17291027</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1729-10-27</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1729-10-27</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1729</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1729</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Valença</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>15610927</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15610927</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1561-09-27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1561-09-27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Veneza</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>17180424</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>17180424</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1718-04-24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1718-04-24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1718</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1718</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Villaregio</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>15890406</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>15890406</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1589-04-06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1589-04-06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
           <t>Índia</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>15530000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>15530000</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1553-07-02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1553-07-02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1553</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1553</t>
         </is>
       </c>
     </row>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,120 +558,120 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>15460000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17590310</t>
+          <t>17530612</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1534-08-15</t>
+          <t>1546-07-02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1759-03-10</t>
+          <t>1753-06-12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1753</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15400927</t>
+          <t>15340815</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17560709</t>
+          <t>17590310</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1540-09-27</t>
+          <t>1534-08-15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1756-07-09</t>
+          <t>1759-03-10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>1759</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15460000</t>
+          <t>15400927</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17521123</t>
+          <t>17560709</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1546-07-02</t>
+          <t>1540-09-27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1752-11-23</t>
+          <t>1756-07-09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>1756</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1238,7 +1238,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Brno, República Checa</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1278,47 +1278,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lisboa, Arroios</t>
+          <t>Chieri</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17450423</t>
+          <t>16280213</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17530612</t>
+          <t>16880120</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1745-04-23</t>
+          <t>1628-02-13</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1753-06-12</t>
+          <t>1688-01-20</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>1688</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Chieri</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1326,79 +1326,79 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16280213</t>
+          <t>15560000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16880120</t>
+          <t>16260600</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1628-02-13</t>
+          <t>1556-07-02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1688-01-20</t>
+          <t>1626-06-15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1626</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Cracóvia</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15560000</t>
+          <t>16310816</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16260600</t>
+          <t>16760909</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1556-07-02</t>
+          <t>1631-08-16</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1626-06-15</t>
+          <t>1676-09-09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1676</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Cracóvia</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1406,39 +1406,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16310816</t>
+          <t>16740927</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16760909</t>
+          <t>16930923</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1631-08-16</t>
+          <t>1674-09-27</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1676-09-09</t>
+          <t>1693-09-23</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1674</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>1693</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1446,39 +1446,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16740927</t>
+          <t>16181103</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16930923</t>
+          <t>16561022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1674-09-27</t>
+          <t>1618-11-03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1693-09-23</t>
+          <t>1656-10-22</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1674</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1656</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1486,39 +1486,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16181103</t>
+          <t>15480613</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16561022</t>
+          <t>16780000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1618-11-03</t>
+          <t>1548-06-13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1656-10-22</t>
+          <t>1678-07-02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1678</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Shiuchow</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1526,32 +1526,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15480613</t>
+          <t>15891100</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>16050000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1548-06-13</t>
+          <t>1589-11-15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1678-07-02</t>
+          <t>1605-07-02</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1605</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Messina, Sicília</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2038,7 +2038,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Montmartre</t>
+          <t>Novellara</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2046,32 +2046,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>16001101</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>16170121</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1534-08-15</t>
+          <t>1600-11-01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1534-08-15</t>
+          <t>1617-01-21</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1617</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Shiuchow</t>
+          <t>Vilnius</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2126,119 +2126,119 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15910101</t>
+          <t>16180531</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16050000</t>
+          <t>16720811</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1591-01-01</t>
+          <t>1618-05-31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1605-07-02</t>
+          <t>1672-08-11</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1672</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Shiuchow, Chao-tcheou fou</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15891100</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15891100</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1589-11-15</t>
+          <t>1641-07-02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1589-11-15</t>
+          <t>1641-07-02</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1641</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16180531</t>
+          <t>17280105</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16720811</t>
+          <t>17280105</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1618-05-31</t>
+          <t>1728-01-05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1672-08-11</t>
+          <t>1728-01-05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1728</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1728</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Colorno</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2246,39 +2246,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>17991116</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>17991116</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1641-07-02</t>
+          <t>1799-11-16</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1641-07-02</t>
+          <t>1799-11-16</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1799</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Courtrai</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2286,39 +2286,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17280105</t>
+          <t>16440926</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17280105</t>
+          <t>16440926</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1728-01-05</t>
+          <t>1644-09-26</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1728-01-05</t>
+          <t>1644-09-26</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>1644</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Colorno</t>
+          <t>Krems</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2326,39 +2326,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17991116</t>
+          <t>16641031</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17991116</t>
+          <t>16641031</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1799-11-16</t>
+          <t>1664-10-31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1799-11-16</t>
+          <t>1664-10-31</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1664</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Courtrai</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2366,39 +2366,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16440926</t>
+          <t>15680711</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16440926</t>
+          <t>15680711</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1644-09-26</t>
+          <t>1568-07-11</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1644-09-26</t>
+          <t>1568-07-11</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1568</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Krems</t>
+          <t>Lorette</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2406,39 +2406,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>15590425</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>15590425</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1664-10-31</t>
+          <t>1559-04-25</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1664-10-31</t>
+          <t>1559-04-25</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1559</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1559</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2446,39 +2446,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>16730717</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>16730717</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1568-07-11</t>
+          <t>1673-07-17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1568-07-11</t>
+          <t>1673-07-17</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1673</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1673</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Lorette</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2486,39 +2486,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>16721011</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>16721011</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1559-04-25</t>
+          <t>1672-10-11</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1559-04-25</t>
+          <t>1672-10-11</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1672</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Mazowsze (província)</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2526,39 +2526,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>17700813</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>17700813</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1673-07-17</t>
+          <t>1770-08-13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1673-07-17</t>
+          <t>1770-08-13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>1770</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Milão (província)</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2566,39 +2566,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>16581105</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>16581105</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1672-10-11</t>
+          <t>1658-11-05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1672-10-11</t>
+          <t>1658-11-05</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1658</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Mazowsze (província)</t>
+          <t>Nan-tch'ang</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2606,39 +2606,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1770-08-13</t>
+          <t>1608-07-02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1770-08-13</t>
+          <t>1608-07-02</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1608</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Milão (província)</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2646,39 +2646,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>16080300</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>16080300</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1658-11-05</t>
+          <t>1608-03-15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1658-11-05</t>
+          <t>1608-03-15</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1608</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Nan-tch'ang</t>
+          <t>Ormuz</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2686,39 +2686,23 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16080000</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>1608-07-02</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1608-07-02</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
-      </c>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Ozukio (noviciado)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2726,39 +2710,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>15811100</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>15811100</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1608-03-15</t>
+          <t>1581-11-15</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1608-03-15</t>
+          <t>1581-11-15</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1581</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Novellara</t>
+          <t>Polotsk</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2766,39 +2750,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>17860903</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>17860903</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1600-11-01</t>
+          <t>1786-09-03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1600-11-01</t>
+          <t>1786-09-03</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1786</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Novellario</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2806,39 +2790,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>16830419</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>16830419</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1617-01-21</t>
+          <t>1683-04-19</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1617-01-21</t>
+          <t>1683-04-19</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1683</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Ormuz</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2846,23 +2830,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>16100000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+          <t>16100000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1610-07-02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1610-07-02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ozukio (noviciado)</t>
+          <t>Todos-os-Santos, Nagasaki</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2870,39 +2870,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>16070202</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>16070202</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1581-11-15</t>
+          <t>1607-02-02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1581-11-15</t>
+          <t>1607-02-02</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1607</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Polotsk</t>
+          <t>Toulouse (província)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2910,39 +2910,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>17500319</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>17500319</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1786-09-03</t>
+          <t>1750-03-19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1786-09-03</t>
+          <t>1750-03-19</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1750</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Salamanca</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2950,39 +2950,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>17291027</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>17291027</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1683-04-19</t>
+          <t>1729-10-27</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1683-04-19</t>
+          <t>1729-10-27</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1729</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1729</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2990,39 +2990,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>15610927</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>15610927</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1610-07-02</t>
+          <t>1561-09-27</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1610-07-02</t>
+          <t>1561-09-27</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1561</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Todos-os-Santos, Nagasaki</t>
+          <t>Veneza</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3030,39 +3030,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>17180424</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>17180424</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1607-02-02</t>
+          <t>1718-04-24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1607-02-02</t>
+          <t>1718-04-24</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1718</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Toulouse (província)</t>
+          <t>Villaregio</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3070,39 +3070,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>15890406</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>15890406</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1750-03-19</t>
+          <t>1589-04-06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1750-03-19</t>
+          <t>1589-04-06</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1589</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Índia</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3110,190 +3110,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>15530000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>15530000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1729-10-27</t>
+          <t>1553-07-02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1729-10-27</t>
+          <t>1553-07-02</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
-        <is>
-          <t>1729</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Valença</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>15610927</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>15610927</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>1561-09-27</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1561-09-27</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>1561</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1561</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Veneza</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>17180424</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>17180424</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1718-04-24</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1718-04-24</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>1718</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1718</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Villaregio</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>15890406</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>15890406</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>1589-04-06</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1589-04-06</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>1589</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1589</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Índia</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>15530000</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>15530000</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>1553-07-02</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1553-07-02</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>1553</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
         <is>
           <t>1553</t>
         </is>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1544-07-02</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1542-07-02</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -558,47 +558,47 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>15460000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17590310</t>
+          <t>17530612</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1534-08-15</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1759-03-10</t>
+          <t>1753-06-12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1753</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -606,72 +606,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15400927</t>
+          <t>16300108</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17560709</t>
+          <t>17590310</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1540-09-27</t>
+          <t>1630-01-08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1756-07-09</t>
+          <t>1759-03-10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>1759</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15460000</t>
+          <t>15480311</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17521123</t>
+          <t>17560709</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1546-07-02</t>
+          <t>1548-03-11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1752-11-23</t>
+          <t>1756-07-09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>1756</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1548-07-02</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1736-07-02</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1628-07-02</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Viena, Áustria</t>
+          <t>Viena</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1238,7 +1238,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Brno, República Checa</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1606-07-02</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1278,47 +1278,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lisboa, Arroios</t>
+          <t>Chieri</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17450423</t>
+          <t>16280213</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17530612</t>
+          <t>16880120</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1745-04-23</t>
+          <t>1628-02-13</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1753-06-12</t>
+          <t>1688-01-20</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>1688</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Chieri</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1326,79 +1326,79 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16280213</t>
+          <t>15560000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16880120</t>
+          <t>16260600</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1628-02-13</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1688-01-20</t>
+          <t>1626-06</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1626</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Cracóvia</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15560000</t>
+          <t>16310816</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16260600</t>
+          <t>16760909</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1556-07-02</t>
+          <t>1631-08-16</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1626-06-15</t>
+          <t>1676-09-09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1676</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Cracóvia</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1406,39 +1406,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16310816</t>
+          <t>16740927</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16760909</t>
+          <t>16930923</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1631-08-16</t>
+          <t>1674-09-27</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1676-09-09</t>
+          <t>1693-09-23</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1674</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>1693</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1446,39 +1446,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16740927</t>
+          <t>16181103</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16930923</t>
+          <t>16561022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1674-09-27</t>
+          <t>1618-11-03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1693-09-23</t>
+          <t>1656-10-22</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1674</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1656</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Palermo, Sicília</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1486,39 +1486,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16181103</t>
+          <t>15480613</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16561022</t>
+          <t>16780000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1618-11-03</t>
+          <t>1548-06-13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1656-10-22</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1678</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Shiuchow</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1526,32 +1526,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15480613</t>
+          <t>15891100</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16780000</t>
+          <t>16050000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1548-06-13</t>
+          <t>1589-11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1678-07-02</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1605</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1668-07-02</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1627-07-02</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1555-07-02</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1556-12-15</t>
+          <t>1556-12</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Messina, Sicília</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1582-07-02</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Montmartre</t>
+          <t>Novellara</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2046,32 +2046,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>16001101</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15340815</t>
+          <t>16170121</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1534-08-15</t>
+          <t>1600-11-01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1534-08-15</t>
+          <t>1617-01-21</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1617</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Shiuchow</t>
+          <t>Vilnius</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2126,119 +2126,119 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15910101</t>
+          <t>16180531</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16050000</t>
+          <t>16720811</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1591-01-01</t>
+          <t>1618-05-31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1605-07-02</t>
+          <t>1672-08-11</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1672</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Shiuchow, Chao-tcheou fou</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15891100</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15891100</t>
+          <t>16410000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1589-11-15</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1589-11-15</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1641</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16180531</t>
+          <t>17280105</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16720811</t>
+          <t>17280105</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1618-05-31</t>
+          <t>1728-01-05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1672-08-11</t>
+          <t>1728-01-05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1728</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1728</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Colorno</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2246,39 +2246,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>17991116</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>16410000</t>
+          <t>17991116</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1641-07-02</t>
+          <t>1799-11-16</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1641-07-02</t>
+          <t>1799-11-16</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1799</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Courtrai</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2286,39 +2286,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17280105</t>
+          <t>16440926</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17280105</t>
+          <t>16440926</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1728-01-05</t>
+          <t>1644-09-26</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1728-01-05</t>
+          <t>1644-09-26</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>1644</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Colorno</t>
+          <t>Krems</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2326,39 +2326,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17991116</t>
+          <t>16641031</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17991116</t>
+          <t>16641031</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1799-11-16</t>
+          <t>1664-10-31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1799-11-16</t>
+          <t>1664-10-31</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1664</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Courtrai</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2366,39 +2366,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16440926</t>
+          <t>15680711</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16440926</t>
+          <t>15680711</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1644-09-26</t>
+          <t>1568-07-11</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1644-09-26</t>
+          <t>1568-07-11</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1568</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Krems</t>
+          <t>Lorette</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2406,39 +2406,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>15590425</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16641031</t>
+          <t>15590425</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1664-10-31</t>
+          <t>1559-04-25</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1664-10-31</t>
+          <t>1559-04-25</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1559</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1559</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2446,39 +2446,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>16730717</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>15680711</t>
+          <t>16730717</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1568-07-11</t>
+          <t>1673-07-17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1568-07-11</t>
+          <t>1673-07-17</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1673</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1673</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Lorette</t>
+          <t>Manila</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2486,39 +2486,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>16721011</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15590425</t>
+          <t>16721011</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1559-04-25</t>
+          <t>1672-10-11</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1559-04-25</t>
+          <t>1672-10-11</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1672</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Mazowsze (província)</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2526,39 +2526,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>17700813</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16730717</t>
+          <t>17700813</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1673-07-17</t>
+          <t>1770-08-13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1673-07-17</t>
+          <t>1770-08-13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>1770</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Manila</t>
+          <t>Milão (província)</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2566,39 +2566,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>16581105</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16721011</t>
+          <t>16581105</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1672-10-11</t>
+          <t>1658-11-05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1672-10-11</t>
+          <t>1658-11-05</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1658</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Mazowsze (província)</t>
+          <t>Nan-tch'ang</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2606,39 +2606,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17700813</t>
+          <t>16080000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1770-08-13</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1770-08-13</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1608</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Milão (província)</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2646,39 +2646,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>16080300</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16581105</t>
+          <t>16080300</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1658-11-05</t>
+          <t>1608-03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1658-11-05</t>
+          <t>1608-03</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1608</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Nan-tch'ang</t>
+          <t>Ormuz</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2686,39 +2686,23 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16080000</t>
+          <t>000000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16080000</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>1608-07-02</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1608-07-02</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
-      </c>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Ozukio (noviciado)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2726,39 +2710,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>15811100</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16080300</t>
+          <t>15811100</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1608-03-15</t>
+          <t>1581-11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1608-03-15</t>
+          <t>1581-11</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1581</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Novellara</t>
+          <t>Polotsk</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2766,39 +2750,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>17860903</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16001101</t>
+          <t>17860903</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1600-11-01</t>
+          <t>1786-09-03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1600-11-01</t>
+          <t>1786-09-03</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1786</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Novellario</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2806,39 +2790,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>16830419</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16170121</t>
+          <t>16830419</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1617-01-21</t>
+          <t>1683-04-19</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1617-01-21</t>
+          <t>1683-04-19</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1683</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Ormuz</t>
+          <t>Shanghai</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2846,23 +2830,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>000000</t>
+          <t>16100000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+          <t>16100000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ozukio (noviciado)</t>
+          <t>Todos-os-Santos, Nagasaki</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2870,39 +2870,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>16070202</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>15811100</t>
+          <t>16070202</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1581-11-15</t>
+          <t>1607-02-02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1581-11-15</t>
+          <t>1607-02-02</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1607</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Polotsk</t>
+          <t>Toulouse (província)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2910,39 +2910,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>17500319</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>17860903</t>
+          <t>17500319</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1786-09-03</t>
+          <t>1750-03-19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1786-09-03</t>
+          <t>1750-03-19</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1750</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Salamanca</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2950,39 +2950,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>17291027</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16830419</t>
+          <t>17291027</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1683-04-19</t>
+          <t>1729-10-27</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1683-04-19</t>
+          <t>1729-10-27</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1729</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1729</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Shanghai</t>
+          <t>Valença</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2990,39 +2990,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>15610927</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16100000</t>
+          <t>15610927</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1610-07-02</t>
+          <t>1561-09-27</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1610-07-02</t>
+          <t>1561-09-27</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1561</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Todos-os-Santos, Nagasaki</t>
+          <t>Veneza</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3030,39 +3030,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>17180424</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16070202</t>
+          <t>17180424</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1607-02-02</t>
+          <t>1718-04-24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1607-02-02</t>
+          <t>1718-04-24</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1718</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Toulouse (província)</t>
+          <t>Villaregio</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3070,39 +3070,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>15890406</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17500319</t>
+          <t>15890406</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1750-03-19</t>
+          <t>1589-04-06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1750-03-19</t>
+          <t>1589-04-06</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1589</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>Índia</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3110,190 +3110,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>15530000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>17291027</t>
+          <t>15530000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1729-10-27</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1729-10-27</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
-        <is>
-          <t>1729</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Valença</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>15610927</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>15610927</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>1561-09-27</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1561-09-27</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>1561</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1561</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Veneza</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>17180424</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>17180424</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1718-04-24</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1718-04-24</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>1718</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1718</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Villaregio</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>15890406</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>15890406</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>1589-04-06</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1589-04-06</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>1589</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1589</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Índia</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>15530000</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>15530000</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>1553-07-02</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1553-07-02</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>1553</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
         <is>
           <t>1553</t>
         </is>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Landsberg</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -806,79 +806,79 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16280000</t>
+          <t>16230729</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17490201</t>
+          <t>17571009</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1623-07-29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1749-02-01</t>
+          <t>1757-10-09</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>1757</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Avignon</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16150926</t>
+          <t>16280000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17370927</t>
+          <t>17490201</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1615-09-26</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1737-09-27</t>
+          <t>1749-02-01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1749</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Landsberg</t>
+          <t>Avignon</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -886,32 +886,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16230729</t>
+          <t>16150926</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17571009</t>
+          <t>17370927</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1623-07-29</t>
+          <t>1615-09-26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1757-10-09</t>
+          <t>1737-09-27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>1737</t>
         </is>
       </c>
     </row>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/notebooks/jesuita-entrada_totals.xlsx
+++ b/notebooks/jesuita-entrada_totals.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
